--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08958E5A-9116-4918-9855-1293DA7FA28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5F383-4E5D-4809-B084-C044F358D67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
     <t>SERVICEINSTANCENUMBER</t>
   </si>
   <si>
-    <t>CHARGENAME</t>
+    <t>CHARGEPRICE</t>
   </si>
   <si>
-    <t>CHARGEPRICE</t>
+    <t xml:space="preserve">CHARGENAME </t>
   </si>
 </sst>
 </file>
@@ -459,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -516,13 +516,13 @@
     </row>
     <row r="5" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:55" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:55" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -534,7 +534,7 @@
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",E4,"""",",")</f>
-        <v>"CHARGENAME",</v>
+        <v>"CHARGENAME ",</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ref="E8:BC8" si="1">_xlfn.CONCAT("ifnull(",E4,",""""),")</f>
-        <v>ifnull(CHARGENAME,""),</v>
+        <v>ifnull(CHARGENAME ,""),</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>

--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5F383-4E5D-4809-B084-C044F358D67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F88792-F233-446F-935C-340A150C3AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t xml:space="preserve">select </t>
   </si>
@@ -44,13 +44,106 @@
     <t>TRANSPOSE COLUMNS FROM A HERE</t>
   </si>
   <si>
-    <t>SERVICEINSTANCENUMBER</t>
-  </si>
-  <si>
-    <t>CHARGEPRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHARGENAME </t>
+    <t>INVOICESUMMARYID</t>
+  </si>
+  <si>
+    <t>DEBITDOCUMENTNUMBER</t>
+  </si>
+  <si>
+    <t>CREATEDATE</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>UNPAID</t>
+  </si>
+  <si>
+    <t>WRITEOFF</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>DUEDATE</t>
+  </si>
+  <si>
+    <t>TOTALDUE</t>
+  </si>
+  <si>
+    <t>DISPUTED</t>
+  </si>
+  <si>
+    <t>BILLDATE</t>
+  </si>
+  <si>
+    <t>SURCHARGE</t>
+  </si>
+  <si>
+    <t>SYSCURRENCYEXCHANGERATE</t>
+  </si>
+  <si>
+    <t>TOTALAMOUNT</t>
+  </si>
+  <si>
+    <t>DISCOUNTABLE</t>
+  </si>
+  <si>
+    <t>DISCOUNTED</t>
+  </si>
+  <si>
+    <t>TAXABLE</t>
+  </si>
+  <si>
+    <t>FROMDATE</t>
+  </si>
+  <si>
+    <t>TODATE</t>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+  </si>
+  <si>
+    <t>BILLINGACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>CUSTOMERACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>ADJUSTEDAMOUNT</t>
+  </si>
+  <si>
+    <t>BILLCYCLE</t>
+  </si>
+  <si>
+    <t>CURRENCYALIAS</t>
+  </si>
+  <si>
+    <t>ORIGINALCURRENCY</t>
+  </si>
+  <si>
+    <t>CREATEDBY</t>
+  </si>
+  <si>
+    <t>PROFORMAINVOICENUMBER</t>
+  </si>
+  <si>
+    <t>CREDITINVOICENUMBER</t>
+  </si>
+  <si>
+    <t>DEBITINVOICENUMBER</t>
+  </si>
+  <si>
+    <t>INVOICETYPE</t>
+  </si>
+  <si>
+    <t>INVOICEHARD</t>
+  </si>
+  <si>
+    <t>INVOICE_PDF_NAME</t>
   </si>
 </sst>
 </file>
@@ -429,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E49A4-7324-4315-AC42-7FF421A249CF}">
   <dimension ref="A2:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -459,49 +552,111 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
@@ -516,13 +671,13 @@
     </row>
     <row r="5" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:55" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:55" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -530,139 +685,139 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>_xlfn.CONCAT("""",D4,"""",",")</f>
-        <v>"SERVICEINSTANCENUMBER",</v>
+        <v>"INVOICESUMMARYID",</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",E4,"""",",")</f>
-        <v>"CHARGENAME ",</v>
+        <v>"DEBITDOCUMENTNUMBER",</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CHARGEPRICE",</v>
+        <v>"CREATEDATE",</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SUBTOTAL",</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"TAX",</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"UNPAID",</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"WRITEOFF",</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"REMARK",</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"DUEDATE",</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"TOTALDUE",</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"DISPUTED",</v>
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"BILLDATE",</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SURCHARGE",</v>
       </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SYSCURRENCYEXCHANGERATE",</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"TOTALAMOUNT",</v>
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"DISCOUNTABLE",</v>
       </c>
       <c r="T6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"DISCOUNTED",</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"TAXABLE",</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"FROMDATE",</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"TODATE",</v>
       </c>
       <c r="X6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"DEPOSIT",</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"BILLINGACCOUNTNUMBER",</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CUSTOMERACCOUNTNUMBER",</v>
       </c>
       <c r="AA6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"ADJUSTEDAMOUNT",</v>
       </c>
       <c r="AB6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"BILLCYCLE",</v>
       </c>
       <c r="AC6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CURRENCYALIAS",</v>
       </c>
       <c r="AD6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"ORIGINALCURRENCY",</v>
       </c>
       <c r="AE6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CREATEDBY",</v>
       </c>
       <c r="AF6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"PROFORMAINVOICENUMBER",</v>
       </c>
       <c r="AG6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CREDITINVOICENUMBER",</v>
       </c>
       <c r="AH6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"DEBITINVOICENUMBER",</v>
       </c>
       <c r="AI6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"INVOICETYPE",</v>
       </c>
       <c r="AJ6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"INVOICEHARD",</v>
       </c>
       <c r="AK6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"INVOICE_PDF_NAME",</v>
       </c>
       <c r="AL6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -738,150 +893,154 @@
       </c>
     </row>
     <row r="7" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:55" ht="36" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:55" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>_xlfn.CONCAT("ifnull(",D4,",""""),")</f>
-        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
+        <v>ifnull(INVOICESUMMARYID,""),</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ref="E8:BC8" si="1">_xlfn.CONCAT("ifnull(",E4,",""""),")</f>
-        <v>ifnull(CHARGENAME ,""),</v>
+        <v>ifnull(DEBITDOCUMENTNUMBER,""),</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CHARGEPRICE,""),</v>
+        <v>ifnull(CREATEDATE,""),</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SUBTOTAL,""),</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(TAX,""),</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(UNPAID,""),</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(WRITEOFF,""),</v>
       </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(REMARK,""),</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(DUEDATE,""),</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(TOTALDUE,""),</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(DISPUTED,""),</v>
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(BILLDATE,""),</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SURCHARGE,""),</v>
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SYSCURRENCYEXCHANGERATE,""),</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(TOTALAMOUNT,""),</v>
       </c>
       <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(DISCOUNTABLE,""),</v>
       </c>
       <c r="T8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(DISCOUNTED,""),</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(TAXABLE,""),</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(FROMDATE,""),</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(TODATE,""),</v>
       </c>
       <c r="X8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(DEPOSIT,""),</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
       </c>
       <c r="AA8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(ADJUSTEDAMOUNT,""),</v>
       </c>
       <c r="AB8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(BILLCYCLE,""),</v>
       </c>
       <c r="AC8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CURRENCYALIAS,""),</v>
       </c>
       <c r="AD8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(ORIGINALCURRENCY,""),</v>
       </c>
       <c r="AE8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CREATEDBY,""),</v>
       </c>
       <c r="AF8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(PROFORMAINVOICENUMBER,""),</v>
       </c>
       <c r="AG8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CREDITINVOICENUMBER,""),</v>
       </c>
       <c r="AH8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(DEBITINVOICENUMBER,""),</v>
       </c>
       <c r="AI8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(INVOICETYPE,""),</v>
       </c>
       <c r="AJ8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(INVOICEHARD,""),</v>
       </c>
       <c r="AK8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(INVOICE_PDF_NAME,""),</v>
       </c>
       <c r="AL8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -956,148 +1115,205 @@
         <v>ifnull(,""),</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">

--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F88792-F233-446F-935C-340A150C3AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEEF57-BF67-415F-B0DF-D114959D2648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t xml:space="preserve">select </t>
   </si>
@@ -44,106 +44,70 @@
     <t>TRANSPOSE COLUMNS FROM A HERE</t>
   </si>
   <si>
-    <t>INVOICESUMMARYID</t>
-  </si>
-  <si>
     <t>DEBITDOCUMENTNUMBER</t>
   </si>
   <si>
-    <t>CREATEDATE</t>
-  </si>
-  <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
-    <t>TAX</t>
-  </si>
-  <si>
-    <t>UNPAID</t>
-  </si>
-  <si>
-    <t>WRITEOFF</t>
-  </si>
-  <si>
-    <t>REMARK</t>
-  </si>
-  <si>
-    <t>DUEDATE</t>
-  </si>
-  <si>
-    <t>TOTALDUE</t>
-  </si>
-  <si>
-    <t>DISPUTED</t>
-  </si>
-  <si>
-    <t>BILLDATE</t>
-  </si>
-  <si>
-    <t>SURCHARGE</t>
-  </si>
-  <si>
-    <t>SYSCURRENCYEXCHANGERATE</t>
-  </si>
-  <si>
-    <t>TOTALAMOUNT</t>
-  </si>
-  <si>
-    <t>DISCOUNTABLE</t>
-  </si>
-  <si>
-    <t>DISCOUNTED</t>
-  </si>
-  <si>
-    <t>TAXABLE</t>
-  </si>
-  <si>
-    <t>FROMDATE</t>
-  </si>
-  <si>
-    <t>TODATE</t>
-  </si>
-  <si>
-    <t>DEPOSIT</t>
-  </si>
-  <si>
     <t>BILLINGACCOUNTNUMBER</t>
   </si>
   <si>
     <t>CUSTOMERACCOUNTNUMBER</t>
   </si>
   <si>
-    <t>ADJUSTEDAMOUNT</t>
-  </si>
-  <si>
-    <t>BILLCYCLE</t>
-  </si>
-  <si>
-    <t>CURRENCYALIAS</t>
-  </si>
-  <si>
-    <t>ORIGINALCURRENCY</t>
-  </si>
-  <si>
-    <t>CREATEDBY</t>
-  </si>
-  <si>
-    <t>PROFORMAINVOICENUMBER</t>
-  </si>
-  <si>
-    <t>CREDITINVOICENUMBER</t>
-  </si>
-  <si>
-    <t>DEBITINVOICENUMBER</t>
-  </si>
-  <si>
-    <t>INVOICETYPE</t>
-  </si>
-  <si>
     <t>INVOICEHARD</t>
   </si>
   <si>
-    <t>INVOICE_PDF_NAME</t>
+    <t>PAYMENTRECEIPTID</t>
+  </si>
+  <si>
+    <t>SERVICEINSTANCENUMBER</t>
+  </si>
+  <si>
+    <t>PAYMENTDATE</t>
+  </si>
+  <si>
+    <t>PAYMENTPROCESSEDDATE</t>
+  </si>
+  <si>
+    <t>PAYMENTDESC</t>
+  </si>
+  <si>
+    <t>PAYMENTCURRENCYALIAS</t>
+  </si>
+  <si>
+    <t>PAYMENTMODE</t>
+  </si>
+  <si>
+    <t>PAYMENTTRANSACTIONAMOUNT</t>
+  </si>
+  <si>
+    <t>SERIALNUMBER</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>CONTRACT_ID</t>
+  </si>
+  <si>
+    <t>PAYMENTAMOUNT</t>
+  </si>
+  <si>
+    <t>PAYMENTREASON</t>
+  </si>
+  <si>
+    <t>EXCHANGERATE</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
+  </si>
+  <si>
+    <t>EMPLOYEEID</t>
+  </si>
+  <si>
+    <t>EMPLOYEENAME</t>
+  </si>
+  <si>
+    <t>EMPLOYEEDEPARTMENT</t>
   </si>
 </sst>
 </file>
@@ -522,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E49A4-7324-4315-AC42-7FF421A249CF}">
   <dimension ref="A2:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -542,14 +506,14 @@
     </row>
     <row r="4" spans="1:55" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -558,52 +522,52 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>22</v>
@@ -614,42 +578,18 @@
       <c r="Y4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
@@ -685,139 +625,139 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>_xlfn.CONCAT("""",D4,"""",",")</f>
-        <v>"INVOICESUMMARYID",</v>
+        <v>"PAYMENTRECEIPTID",</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",E4,"""",",")</f>
+        <v>"BILLINGACCOUNTNUMBER",</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CUSTOMERACCOUNTNUMBER",</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SERVICEINSTANCENUMBER",</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PAYMENTDATE",</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PAYMENTPROCESSEDDATE",</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PAYMENTDESC",</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PAYMENTCURRENCYALIAS",</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PAYMENTMODE",</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PAYMENTTRANSACTIONAMOUNT",</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SERIALNUMBER",</v>
+      </c>
+      <c r="O6" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>"DEBITDOCUMENTNUMBER",</v>
       </c>
-      <c r="F6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"CREATEDATE",</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"SUBTOTAL",</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"TAX",</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"UNPAID",</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"WRITEOFF",</v>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"REMARK",</v>
-      </c>
-      <c r="L6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"DUEDATE",</v>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"TOTALDUE",</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"DISPUTED",</v>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"BILLDATE",</v>
-      </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SURCHARGE",</v>
+        <v>"CLIENT_ID",</v>
       </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SYSCURRENCYEXCHANGERATE",</v>
+        <v>"CONTRACT_ID",</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"TOTALAMOUNT",</v>
+        <v>"PAYMENTAMOUNT",</v>
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"DISCOUNTABLE",</v>
+        <v>"PAYMENTREASON",</v>
       </c>
       <c r="T6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"DISCOUNTED",</v>
+        <v>"EXCHANGERATE",</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"TAXABLE",</v>
+        <v>"DISCOUNT",</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"FROMDATE",</v>
+        <v>"INVOICEHARD",</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"TODATE",</v>
+        <v>"EMPLOYEEID",</v>
       </c>
       <c r="X6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"DEPOSIT",</v>
+        <v>"EMPLOYEENAME",</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"BILLINGACCOUNTNUMBER",</v>
+        <v>"EMPLOYEEDEPARTMENT",</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CUSTOMERACCOUNTNUMBER",</v>
+        <v>"",</v>
       </c>
       <c r="AA6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"ADJUSTEDAMOUNT",</v>
+        <v>"",</v>
       </c>
       <c r="AB6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"BILLCYCLE",</v>
+        <v>"",</v>
       </c>
       <c r="AC6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CURRENCYALIAS",</v>
+        <v>"",</v>
       </c>
       <c r="AD6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"ORIGINALCURRENCY",</v>
+        <v>"",</v>
       </c>
       <c r="AE6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CREATEDBY",</v>
+        <v>"",</v>
       </c>
       <c r="AF6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"PROFORMAINVOICENUMBER",</v>
+        <v>"",</v>
       </c>
       <c r="AG6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CREDITINVOICENUMBER",</v>
+        <v>"",</v>
       </c>
       <c r="AH6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"DEBITINVOICENUMBER",</v>
+        <v>"",</v>
       </c>
       <c r="AI6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"INVOICETYPE",</v>
+        <v>"",</v>
       </c>
       <c r="AJ6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"INVOICEHARD",</v>
+        <v>"",</v>
       </c>
       <c r="AK6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"INVOICE_PDF_NAME",</v>
+        <v>"",</v>
       </c>
       <c r="AL6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -892,15 +832,15 @@
         <v>"",</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:55" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -908,139 +848,139 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>_xlfn.CONCAT("ifnull(",D4,",""""),")</f>
-        <v>ifnull(INVOICESUMMARYID,""),</v>
+        <v>ifnull(PAYMENTRECEIPTID,""),</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ref="E8:BC8" si="1">_xlfn.CONCAT("ifnull(",E4,",""""),")</f>
+        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(PAYMENTDATE,""),</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(PAYMENTPROCESSEDDATE,""),</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(PAYMENTDESC,""),</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(PAYMENTCURRENCYALIAS,""),</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(PAYMENTMODE,""),</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(PAYMENTTRANSACTIONAMOUNT,""),</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERIALNUMBER,""),</v>
+      </c>
+      <c r="O8" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>ifnull(DEBITDOCUMENTNUMBER,""),</v>
       </c>
-      <c r="F8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(CREATEDATE,""),</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(SUBTOTAL,""),</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(TAX,""),</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(UNPAID,""),</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(WRITEOFF,""),</v>
-      </c>
-      <c r="K8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(REMARK,""),</v>
-      </c>
-      <c r="L8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(DUEDATE,""),</v>
-      </c>
-      <c r="M8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(TOTALDUE,""),</v>
-      </c>
-      <c r="N8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(DISPUTED,""),</v>
-      </c>
-      <c r="O8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(BILLDATE,""),</v>
-      </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SURCHARGE,""),</v>
+        <v>ifnull(CLIENT_ID,""),</v>
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SYSCURRENCYEXCHANGERATE,""),</v>
+        <v>ifnull(CONTRACT_ID,""),</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(TOTALAMOUNT,""),</v>
+        <v>ifnull(PAYMENTAMOUNT,""),</v>
       </c>
       <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(DISCOUNTABLE,""),</v>
+        <v>ifnull(PAYMENTREASON,""),</v>
       </c>
       <c r="T8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(DISCOUNTED,""),</v>
+        <v>ifnull(EXCHANGERATE,""),</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(TAXABLE,""),</v>
+        <v>ifnull(DISCOUNT,""),</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(FROMDATE,""),</v>
+        <v>ifnull(INVOICEHARD,""),</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(TODATE,""),</v>
+        <v>ifnull(EMPLOYEEID,""),</v>
       </c>
       <c r="X8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(DEPOSIT,""),</v>
+        <v>ifnull(EMPLOYEENAME,""),</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
+        <v>ifnull(EMPLOYEEDEPARTMENT,""),</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AA8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(ADJUSTEDAMOUNT,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AB8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(BILLCYCLE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AC8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CURRENCYALIAS,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AD8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(ORIGINALCURRENCY,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AE8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CREATEDBY,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AF8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(PROFORMAINVOICENUMBER,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AG8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CREDITINVOICENUMBER,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AH8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(DEBITINVOICENUMBER,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AI8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(INVOICETYPE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AJ8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(INVOICEHARD,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AK8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(INVOICE_PDF_NAME,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AL8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1117,85 +1057,85 @@
     </row>
     <row r="9" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4"/>
     </row>
@@ -1217,76 +1157,52 @@
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">

--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEEF57-BF67-415F-B0DF-D114959D2648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1FD73-EACC-4707-94FE-C2182129443B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t xml:space="preserve">select </t>
   </si>
@@ -44,70 +44,43 @@
     <t>TRANSPOSE COLUMNS FROM A HERE</t>
   </si>
   <si>
-    <t>DEBITDOCUMENTNUMBER</t>
-  </si>
-  <si>
     <t>BILLINGACCOUNTNUMBER</t>
   </si>
   <si>
     <t>CUSTOMERACCOUNTNUMBER</t>
   </si>
   <si>
-    <t>INVOICEHARD</t>
-  </si>
-  <si>
-    <t>PAYMENTRECEIPTID</t>
-  </si>
-  <si>
     <t>SERVICEINSTANCENUMBER</t>
   </si>
   <si>
-    <t>PAYMENTDATE</t>
-  </si>
-  <si>
-    <t>PAYMENTPROCESSEDDATE</t>
-  </si>
-  <si>
-    <t>PAYMENTDESC</t>
-  </si>
-  <si>
-    <t>PAYMENTCURRENCYALIAS</t>
-  </si>
-  <si>
-    <t>PAYMENTMODE</t>
-  </si>
-  <si>
-    <t>PAYMENTTRANSACTIONAMOUNT</t>
-  </si>
-  <si>
-    <t>SERIALNUMBER</t>
-  </si>
-  <si>
-    <t>CLIENT_ID</t>
-  </si>
-  <si>
-    <t>CONTRACT_ID</t>
-  </si>
-  <si>
-    <t>PAYMENTAMOUNT</t>
-  </si>
-  <si>
-    <t>PAYMENTREASON</t>
-  </si>
-  <si>
-    <t>EXCHANGERATE</t>
-  </si>
-  <si>
-    <t>DISCOUNT</t>
-  </si>
-  <si>
-    <t>EMPLOYEEID</t>
-  </si>
-  <si>
-    <t>EMPLOYEENAME</t>
-  </si>
-  <si>
-    <t>EMPLOYEEDEPARTMENT</t>
+    <t>BILLCYCLE</t>
+  </si>
+  <si>
+    <t>ACCOUNTSTATUS</t>
+  </si>
+  <si>
+    <t>SERVICENAME</t>
+  </si>
+  <si>
+    <t>DISCOUNTPERCENT</t>
+  </si>
+  <si>
+    <t>DISCOUNTAMOUNT</t>
+  </si>
+  <si>
+    <t>APPROVEDSTATUS</t>
+  </si>
+  <si>
+    <t>APPROVALREASON</t>
+  </si>
+  <si>
+    <t>CYCLECOUNT</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>contract_id</t>
   </si>
 </sst>
 </file>
@@ -486,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E49A4-7324-4315-AC42-7FF421A249CF}">
   <dimension ref="A2:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:Y8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -496,7 +469,9 @@
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:55" ht="24" x14ac:dyDescent="0.2">
@@ -506,78 +481,60 @@
     </row>
     <row r="4" spans="1:55" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -609,7 +566,7 @@
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
     </row>
-    <row r="5" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -617,7 +574,7 @@
     </row>
     <row r="6" spans="1:55" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -625,91 +582,91 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>_xlfn.CONCAT("""",D4,"""",",")</f>
-        <v>"PAYMENTRECEIPTID",</v>
+        <v>"BILLINGACCOUNTNUMBER",</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",E4,"""",",")</f>
-        <v>"BILLINGACCOUNTNUMBER",</v>
+        <v>"CUSTOMERACCOUNTNUMBER",</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CUSTOMERACCOUNTNUMBER",</v>
+        <v>"BILLCYCLE",</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>"ACCOUNTSTATUS",</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SERVICENAME",</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"DISCOUNTPERCENT",</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"DISCOUNTAMOUNT",</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"APPROVEDSTATUS",</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"APPROVALREASON",</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CYCLECOUNT",</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"client_id",</v>
+      </c>
+      <c r="O6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"contract_id",</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>"SERVICEINSTANCENUMBER",</v>
       </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"PAYMENTDATE",</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"PAYMENTPROCESSEDDATE",</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"PAYMENTDESC",</v>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"PAYMENTCURRENCYALIAS",</v>
-      </c>
-      <c r="L6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"PAYMENTMODE",</v>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"PAYMENTTRANSACTIONAMOUNT",</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"SERIALNUMBER",</v>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"DEBITDOCUMENTNUMBER",</v>
-      </c>
-      <c r="P6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"CLIENT_ID",</v>
-      </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CONTRACT_ID",</v>
+        <v>"",</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"PAYMENTAMOUNT",</v>
+        <v>"",</v>
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"PAYMENTREASON",</v>
+        <v>"",</v>
       </c>
       <c r="T6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"EXCHANGERATE",</v>
+        <v>"",</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"DISCOUNT",</v>
+        <v>"",</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"INVOICEHARD",</v>
+        <v>"",</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"EMPLOYEEID",</v>
+        <v>"",</v>
       </c>
       <c r="X6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"EMPLOYEENAME",</v>
+        <v>"",</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"EMPLOYEEDEPARTMENT",</v>
+        <v>"",</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -832,15 +789,15 @@
         <v>"",</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:55" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -848,91 +805,91 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>_xlfn.CONCAT("ifnull(",D4,",""""),")</f>
-        <v>ifnull(PAYMENTRECEIPTID,""),</v>
+        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ref="E8:BC8" si="1">_xlfn.CONCAT("ifnull(",E4,",""""),")</f>
-        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
+        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
+        <v>ifnull(BILLCYCLE,""),</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ifnull(ACCOUNTSTATUS,""),</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERVICENAME,""),</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(DISCOUNTPERCENT,""),</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(DISCOUNTAMOUNT,""),</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(APPROVEDSTATUS,""),</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(APPROVALREASON,""),</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CYCLECOUNT,""),</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(client_id,""),</v>
+      </c>
+      <c r="O8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(contract_id,""),</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
       </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTDATE,""),</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTPROCESSEDDATE,""),</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTDESC,""),</v>
-      </c>
-      <c r="K8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTCURRENCYALIAS,""),</v>
-      </c>
-      <c r="L8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTMODE,""),</v>
-      </c>
-      <c r="M8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTTRANSACTIONAMOUNT,""),</v>
-      </c>
-      <c r="N8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(SERIALNUMBER,""),</v>
-      </c>
-      <c r="O8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(DEBITDOCUMENTNUMBER,""),</v>
-      </c>
-      <c r="P8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(CLIENT_ID,""),</v>
-      </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CONTRACT_ID,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTAMOUNT,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(PAYMENTREASON,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="T8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(EXCHANGERATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(DISCOUNT,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(INVOICEHARD,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(EMPLOYEEID,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="X8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(EMPLOYEENAME,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(EMPLOYEEDEPARTMENT,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1057,104 +1014,86 @@
     </row>
     <row r="9" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:55" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">

--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1FD73-EACC-4707-94FE-C2182129443B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37089290-B2E6-4AB4-B82B-A4C4CA684E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t xml:space="preserve">select </t>
   </si>
@@ -53,40 +53,100 @@
     <t>SERVICEINSTANCENUMBER</t>
   </si>
   <si>
-    <t>BILLCYCLE</t>
-  </si>
-  <si>
-    <t>ACCOUNTSTATUS</t>
-  </si>
-  <si>
-    <t>SERVICENAME</t>
-  </si>
-  <si>
-    <t>DISCOUNTPERCENT</t>
-  </si>
-  <si>
-    <t>DISCOUNTAMOUNT</t>
-  </si>
-  <si>
-    <t>APPROVEDSTATUS</t>
-  </si>
-  <si>
-    <t>APPROVALREASON</t>
-  </si>
-  <si>
-    <t>CYCLECOUNT</t>
-  </si>
-  <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>contract_id</t>
+    <t>PACKAGENAME</t>
+  </si>
+  <si>
+    <t>SERVICESTARTDATE</t>
+  </si>
+  <si>
+    <t>SERVICEENDDATE</t>
+  </si>
+  <si>
+    <t>SUBLASTSTARTDATE</t>
+  </si>
+  <si>
+    <t>SUBLASTENDDATE</t>
+  </si>
+  <si>
+    <t>OVERRIDDEN</t>
+  </si>
+  <si>
+    <t>SERVICEACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>SERVICEINSTANCEIDENTIFIER</t>
+  </si>
+  <si>
+    <t>SERVICESTATUS</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>CREATEDDATE</t>
+  </si>
+  <si>
+    <t>ACTIVATIONDATE</t>
+  </si>
+  <si>
+    <t>STATUSCHANGEDDATE</t>
+  </si>
+  <si>
+    <t>LASTACTION</t>
+  </si>
+  <si>
+    <t>PACKAGEAMOUNT</t>
+  </si>
+  <si>
+    <t>CPE_TYPE</t>
+  </si>
+  <si>
+    <t>CPE_ID</t>
+  </si>
+  <si>
+    <t>CONTRACTSTARTDATE</t>
+  </si>
+  <si>
+    <t>CONTRACTENDDATE</t>
+  </si>
+  <si>
+    <t>SERVICEREMARKS</t>
+  </si>
+  <si>
+    <t>EXPIRYDATE</t>
+  </si>
+  <si>
+    <t>FSAN</t>
+  </si>
+  <si>
+    <t>ServiceID</t>
+  </si>
+  <si>
+    <t>ServiceRateID</t>
+  </si>
+  <si>
+    <t>clientcode</t>
+  </si>
+  <si>
+    <t>contractcode</t>
+  </si>
+  <si>
+    <t>serviceinstancestatus</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>CONTRACT_ID</t>
+  </si>
+  <si>
+    <t>SUBLASTPAYDATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,8 +207,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C8E605A4-CD67-4C82-ADA3-5448D992623B}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E49A4-7324-4315-AC42-7FF421A249CF}">
   <dimension ref="A2:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:P8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -481,71 +569,111 @@
     </row>
     <row r="4" spans="1:55" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
+      <c r="AJ4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -566,15 +694,15 @@
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
     </row>
-    <row r="5" spans="1:55" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:55" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -582,135 +710,135 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>_xlfn.CONCAT("""",D4,"""",",")</f>
-        <v>"BILLINGACCOUNTNUMBER",</v>
+        <v>"CUSTOMERACCOUNTNUMBER",</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",E4,"""",",")</f>
-        <v>"CUSTOMERACCOUNTNUMBER",</v>
+        <v>"BILLINGACCOUNTNUMBER",</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"BILLCYCLE",</v>
+        <v>"SERVICEACCOUNTNUMBER",</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"ACCOUNTSTATUS",</v>
+        <v>"SERVICEINSTANCEIDENTIFIER",</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICENAME",</v>
+        <v>"SERVICEINSTANCENUMBER",</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"DISCOUNTPERCENT",</v>
+        <v>"PACKAGENAME",</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"DISCOUNTAMOUNT",</v>
+        <v>"SERVICESTATUS",</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"APPROVEDSTATUS",</v>
+        <v>"USERNAME",</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"APPROVALREASON",</v>
+        <v>"CREATEDDATE",</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CYCLECOUNT",</v>
+        <v>"ACTIVATIONDATE",</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"client_id",</v>
+        <v>"STATUSCHANGEDDATE",</v>
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"contract_id",</v>
+        <v>"LASTACTION",</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICEINSTANCENUMBER",</v>
+        <v>"PACKAGEAMOUNT",</v>
       </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CPE_TYPE",</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CPE_ID",</v>
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CONTRACTSTARTDATE",</v>
       </c>
       <c r="T6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CONTRACTENDDATE",</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SERVICEREMARKS",</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"EXPIRYDATE",</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"OVERRIDDEN",</v>
       </c>
       <c r="X6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"FSAN",</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"ServiceID",</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"ServiceRateID",</v>
       </c>
       <c r="AA6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SERVICESTARTDATE",</v>
       </c>
       <c r="AB6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SERVICEENDDATE",</v>
       </c>
       <c r="AC6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"clientcode",</v>
       </c>
       <c r="AD6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"contractcode",</v>
       </c>
       <c r="AE6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"serviceinstancestatus",</v>
       </c>
       <c r="AF6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CLIENT_ID",</v>
       </c>
       <c r="AG6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"CONTRACT_ID",</v>
       </c>
       <c r="AH6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SUBLASTSTARTDATE",</v>
       </c>
       <c r="AI6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SUBLASTENDDATE",</v>
       </c>
       <c r="AJ6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"",</v>
+        <v>"SUBLASTPAYDATE",</v>
       </c>
       <c r="AK6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -789,15 +917,15 @@
         <v>"",</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:55" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -805,135 +933,135 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>_xlfn.CONCAT("ifnull(",D4,",""""),")</f>
-        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
+        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ref="E8:BC8" si="1">_xlfn.CONCAT("ifnull(",E4,",""""),")</f>
-        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
+        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(BILLCYCLE,""),</v>
+        <v>ifnull(SERVICEACCOUNTNUMBER,""),</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(ACCOUNTSTATUS,""),</v>
+        <v>ifnull(SERVICEINSTANCEIDENTIFIER,""),</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICENAME,""),</v>
+        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(DISCOUNTPERCENT,""),</v>
+        <v>ifnull(PACKAGENAME,""),</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(DISCOUNTAMOUNT,""),</v>
+        <v>ifnull(SERVICESTATUS,""),</v>
       </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(APPROVEDSTATUS,""),</v>
+        <v>ifnull(USERNAME,""),</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(APPROVALREASON,""),</v>
+        <v>ifnull(CREATEDDATE,""),</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CYCLECOUNT,""),</v>
+        <v>ifnull(ACTIVATIONDATE,""),</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(client_id,""),</v>
+        <v>ifnull(STATUSCHANGEDDATE,""),</v>
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(contract_id,""),</v>
+        <v>ifnull(LASTACTION,""),</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
+        <v>ifnull(PACKAGEAMOUNT,""),</v>
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CPE_TYPE,""),</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CPE_ID,""),</v>
       </c>
       <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CONTRACTSTARTDATE,""),</v>
       </c>
       <c r="T8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CONTRACTENDDATE,""),</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SERVICEREMARKS,""),</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(EXPIRYDATE,""),</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(OVERRIDDEN,""),</v>
       </c>
       <c r="X8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(FSAN,""),</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(ServiceID,""),</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(ServiceRateID,""),</v>
       </c>
       <c r="AA8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SERVICESTARTDATE,""),</v>
       </c>
       <c r="AB8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SERVICEENDDATE,""),</v>
       </c>
       <c r="AC8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(clientcode,""),</v>
       </c>
       <c r="AD8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(contractcode,""),</v>
       </c>
       <c r="AE8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(serviceinstancestatus,""),</v>
       </c>
       <c r="AF8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CLIENT_ID,""),</v>
       </c>
       <c r="AG8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(CONTRACT_ID,""),</v>
       </c>
       <c r="AH8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SUBLASTSTARTDATE,""),</v>
       </c>
       <c r="AI8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SUBLASTENDDATE,""),</v>
       </c>
       <c r="AJ8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
+        <v>ifnull(SUBLASTPAYDATE,""),</v>
       </c>
       <c r="AK8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1014,130 +1142,170 @@
     </row>
     <row r="9" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:55" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">

--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37089290-B2E6-4AB4-B82B-A4C4CA684E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900759E8-7BB8-43C0-A896-111761D374FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="3750" windowWidth="18000" windowHeight="12735" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t xml:space="preserve">select </t>
   </si>
@@ -44,12 +44,6 @@
     <t>TRANSPOSE COLUMNS FROM A HERE</t>
   </si>
   <si>
-    <t>BILLINGACCOUNTNUMBER</t>
-  </si>
-  <si>
-    <t>CUSTOMERACCOUNTNUMBER</t>
-  </si>
-  <si>
     <t>SERVICEINSTANCENUMBER</t>
   </si>
   <si>
@@ -62,85 +56,34 @@
     <t>SERVICEENDDATE</t>
   </si>
   <si>
-    <t>SUBLASTSTARTDATE</t>
-  </si>
-  <si>
-    <t>SUBLASTENDDATE</t>
-  </si>
-  <si>
     <t>OVERRIDDEN</t>
   </si>
   <si>
-    <t>SERVICEACCOUNTNUMBER</t>
-  </si>
-  <si>
-    <t>SERVICEINSTANCEIDENTIFIER</t>
-  </si>
-  <si>
-    <t>SERVICESTATUS</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>CREATEDDATE</t>
-  </si>
-  <si>
-    <t>ACTIVATIONDATE</t>
-  </si>
-  <si>
-    <t>STATUSCHANGEDDATE</t>
-  </si>
-  <si>
-    <t>LASTACTION</t>
-  </si>
-  <si>
-    <t>PACKAGEAMOUNT</t>
-  </si>
-  <si>
-    <t>CPE_TYPE</t>
-  </si>
-  <si>
-    <t>CPE_ID</t>
-  </si>
-  <si>
-    <t>CONTRACTSTARTDATE</t>
-  </si>
-  <si>
-    <t>CONTRACTENDDATE</t>
-  </si>
-  <si>
-    <t>SERVICEREMARKS</t>
-  </si>
-  <si>
-    <t>EXPIRYDATE</t>
-  </si>
-  <si>
-    <t>FSAN</t>
-  </si>
-  <si>
-    <t>ServiceID</t>
-  </si>
-  <si>
-    <t>ServiceRateID</t>
-  </si>
-  <si>
-    <t>clientcode</t>
-  </si>
-  <si>
-    <t>contractcode</t>
-  </si>
-  <si>
-    <t>serviceinstancestatus</t>
-  </si>
-  <si>
-    <t>CLIENT_ID</t>
-  </si>
-  <si>
-    <t>CONTRACT_ID</t>
-  </si>
-  <si>
-    <t>SUBLASTPAYDATE</t>
+    <t>LASTSUBSTARTDATE</t>
+  </si>
+  <si>
+    <t>LASTSUBENDDATE</t>
+  </si>
+  <si>
+    <t>LASTINVFROMDATE</t>
+  </si>
+  <si>
+    <t>LASTINVTODATE</t>
+  </si>
+  <si>
+    <t>CURSUBSTARTDATE</t>
+  </si>
+  <si>
+    <t>CURSUBENDDATE</t>
+  </si>
+  <si>
+    <t>CURSUBPAYDATE</t>
+  </si>
+  <si>
+    <t>CURINVFROMDATE</t>
+  </si>
+  <si>
+    <t>CURINVTODATE</t>
   </si>
 </sst>
 </file>
@@ -547,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E49A4-7324-4315-AC42-7FF421A249CF}">
   <dimension ref="A2:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q8" sqref="C8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -569,111 +512,73 @@
     </row>
     <row r="4" spans="1:55" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -682,27 +587,27 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
     </row>
     <row r="5" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:55" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -710,135 +615,135 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>_xlfn.CONCAT("""",D4,"""",",")</f>
-        <v>"CUSTOMERACCOUNTNUMBER",</v>
+        <v>"SERVICEINSTANCENUMBER",</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",E4,"""",",")</f>
-        <v>"BILLINGACCOUNTNUMBER",</v>
+        <f>_xlfn.CONCAT("""",E4,"""",",")</f>
+        <v>"PACKAGENAME",</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"SERVICEACCOUNTNUMBER",</v>
+        <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",F4,"""",",")</f>
+        <v>"SERVICESTARTDATE",</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICEINSTANCEIDENTIFIER",</v>
+        <v>"SERVICEENDDATE",</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICEINSTANCENUMBER",</v>
+        <v>"LASTSUBSTARTDATE",</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"PACKAGENAME",</v>
+        <v>"LASTSUBENDDATE",</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICESTATUS",</v>
+        <v>"LASTINVFROMDATE",</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"USERNAME",</v>
+        <v>"LASTINVTODATE",</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CREATEDDATE",</v>
+        <v>"CURSUBSTARTDATE",</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"ACTIVATIONDATE",</v>
+        <v>"CURSUBENDDATE",</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"STATUSCHANGEDDATE",</v>
+        <v>"CURSUBPAYDATE",</v>
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"LASTACTION",</v>
+        <v>"CURINVFROMDATE",</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"PACKAGEAMOUNT",</v>
+        <v>"CURINVTODATE",</v>
       </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CPE_TYPE",</v>
+        <v>"OVERRIDDEN",</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CPE_ID",</v>
+        <v>"",</v>
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CONTRACTSTARTDATE",</v>
+        <v>"",</v>
       </c>
       <c r="T6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CONTRACTENDDATE",</v>
+        <v>"",</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICEREMARKS",</v>
+        <v>"",</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"EXPIRYDATE",</v>
+        <v>"",</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"OVERRIDDEN",</v>
+        <v>"",</v>
       </c>
       <c r="X6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"FSAN",</v>
+        <v>"",</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"ServiceID",</v>
+        <v>"",</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"ServiceRateID",</v>
+        <v>"",</v>
       </c>
       <c r="AA6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICESTARTDATE",</v>
+        <v>"",</v>
       </c>
       <c r="AB6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SERVICEENDDATE",</v>
+        <v>"",</v>
       </c>
       <c r="AC6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"clientcode",</v>
+        <v>"",</v>
       </c>
       <c r="AD6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"contractcode",</v>
+        <v>"",</v>
       </c>
       <c r="AE6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"serviceinstancestatus",</v>
+        <v>"",</v>
       </c>
       <c r="AF6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CLIENT_ID",</v>
+        <v>"",</v>
       </c>
       <c r="AG6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"CONTRACT_ID",</v>
+        <v>"",</v>
       </c>
       <c r="AH6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SUBLASTSTARTDATE",</v>
+        <v>"",</v>
       </c>
       <c r="AI6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SUBLASTENDDATE",</v>
+        <v>"",</v>
       </c>
       <c r="AJ6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>"SUBLASTPAYDATE",</v>
+        <v>"",</v>
       </c>
       <c r="AK6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -917,15 +822,15 @@
         <v>"",</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:55" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -933,135 +838,135 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>_xlfn.CONCAT("ifnull(",D4,",""""),")</f>
-        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
+        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ref="E8:BC8" si="1">_xlfn.CONCAT("ifnull(",E4,",""""),")</f>
-        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
+        <v>ifnull(PACKAGENAME,""),</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICEACCOUNTNUMBER,""),</v>
+        <v>ifnull(SERVICESTARTDATE,""),</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICEINSTANCEIDENTIFIER,""),</v>
+        <v>ifnull(SERVICEENDDATE,""),</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
+        <v>ifnull(LASTSUBSTARTDATE,""),</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(PACKAGENAME,""),</v>
+        <v>ifnull(LASTSUBENDDATE,""),</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICESTATUS,""),</v>
+        <v>ifnull(LASTINVFROMDATE,""),</v>
       </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(USERNAME,""),</v>
+        <v>ifnull(LASTINVTODATE,""),</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CREATEDDATE,""),</v>
+        <v>ifnull(CURSUBSTARTDATE,""),</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(ACTIVATIONDATE,""),</v>
+        <v>ifnull(CURSUBENDDATE,""),</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(STATUSCHANGEDDATE,""),</v>
+        <v>ifnull(CURSUBPAYDATE,""),</v>
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(LASTACTION,""),</v>
+        <v>ifnull(CURINVFROMDATE,""),</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(PACKAGEAMOUNT,""),</v>
+        <v>ifnull(CURINVTODATE,""),</v>
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CPE_TYPE,""),</v>
+        <v>ifnull(OVERRIDDEN,""),</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CPE_ID,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CONTRACTSTARTDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="T8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CONTRACTENDDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICEREMARKS,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(EXPIRYDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(OVERRIDDEN,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="X8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(FSAN,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(ServiceID,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(ServiceRateID,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AA8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICESTARTDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AB8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SERVICEENDDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AC8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(clientcode,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AD8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(contractcode,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AE8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(serviceinstancestatus,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AF8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CLIENT_ID,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AG8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(CONTRACT_ID,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AH8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SUBLASTSTARTDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AI8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SUBLASTENDDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AJ8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ifnull(SUBLASTPAYDATE,""),</v>
+        <v>ifnull(,""),</v>
       </c>
       <c r="AK8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1142,170 +1047,132 @@
     </row>
     <row r="9" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1316,7 +1183,8 @@
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1339,36 +1207,36 @@
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">

--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900759E8-7BB8-43C0-A896-111761D374FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE08A9A-2017-4A46-9523-C131AB1A8CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="3750" windowWidth="18000" windowHeight="12735" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t xml:space="preserve">select </t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>CURINVTODATE</t>
+  </si>
+  <si>
+    <t>SUBFROM</t>
+  </si>
+  <si>
+    <t>SUBTO</t>
+  </si>
+  <si>
+    <t>SUBPERIOD</t>
   </si>
 </sst>
 </file>
@@ -490,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E49A4-7324-4315-AC42-7FF421A249CF}">
   <dimension ref="A2:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="C8:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="C8:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -558,11 +567,17 @@
         <v>16</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -622,7 +637,7 @@
         <v>"PACKAGENAME",</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" ref="E6:BC6" si="0">_xlfn.CONCAT("""",F4,"""",",")</f>
+        <f t="shared" ref="F6:BC6" si="0">_xlfn.CONCAT("""",F4,"""",",")</f>
         <v>"SERVICESTARTDATE",</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -667,19 +682,19 @@
       </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>"SUBFROM",</v>
+      </c>
+      <c r="R6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SUBTO",</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SUBPERIOD",</v>
+      </c>
+      <c r="T6" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>"OVERRIDDEN",</v>
-      </c>
-      <c r="R6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="S6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="T6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -890,19 +905,19 @@
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ifnull(SUBFROM,""),</v>
+      </c>
+      <c r="R8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SUBTO,""),</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SUBPERIOD,""),</v>
+      </c>
+      <c r="T8" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>ifnull(OVERRIDDEN,""),</v>
-      </c>
-      <c r="R8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="S8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="T8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1095,20 +1110,26 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">

--- a/data_extract/Transform.xlsx
+++ b/data_extract/Transform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cloud\code\sql\data_extract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE08A9A-2017-4A46-9523-C131AB1A8CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F5E3A3-E854-4360-90F6-2C04E796B7E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{F8E63C20-4FE6-4C83-941F-0A3540AED76F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t xml:space="preserve">select </t>
   </si>
@@ -93,6 +93,99 @@
   </si>
   <si>
     <t>SUBPERIOD</t>
+  </si>
+  <si>
+    <t>CUSTOMERACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>BILLINGACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>SERVICEACCOUNTNUMBER</t>
+  </si>
+  <si>
+    <t>SERVICEINSTANCEIDENTIFIER</t>
+  </si>
+  <si>
+    <t>SERVICESTATUS</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>CREATEDDATE</t>
+  </si>
+  <si>
+    <t>ACTIVATIONDATE</t>
+  </si>
+  <si>
+    <t>STATUSCHANGEDDATE</t>
+  </si>
+  <si>
+    <t>LASTACTION</t>
+  </si>
+  <si>
+    <t>PACKAGEAMOUNT</t>
+  </si>
+  <si>
+    <t>CPE_TYPE</t>
+  </si>
+  <si>
+    <t>CPE_ID</t>
+  </si>
+  <si>
+    <t>CONTRACTSTARTDATE</t>
+  </si>
+  <si>
+    <t>CONTRACTENDDATE</t>
+  </si>
+  <si>
+    <t>SERVICEREMARKS</t>
+  </si>
+  <si>
+    <t>EXPIRYDATE</t>
+  </si>
+  <si>
+    <t>FSAN</t>
+  </si>
+  <si>
+    <t>ServiceID</t>
+  </si>
+  <si>
+    <t>ServiceRateID</t>
+  </si>
+  <si>
+    <t>clientcode</t>
+  </si>
+  <si>
+    <t>contractcode</t>
+  </si>
+  <si>
+    <t>serviceinstancestatus</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>CONTRACT_ID</t>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+  </si>
+  <si>
+    <t>DEVICE_TYPE_ID</t>
+  </si>
+  <si>
+    <t>DEVICE_NAME</t>
+  </si>
+  <si>
+    <t>GATEKEEPER_ID</t>
+  </si>
+  <si>
+    <t>GATEKEEPER_NAME</t>
+  </si>
+  <si>
+    <t>LASTSUBPAYDATE</t>
   </si>
 </sst>
 </file>
@@ -499,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8E49A4-7324-4315-AC42-7FF421A249CF}">
   <dimension ref="A2:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="C8:T8"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:AY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -521,94 +614,156 @@
     </row>
     <row r="4" spans="1:55" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
@@ -616,13 +771,13 @@
     </row>
     <row r="5" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -630,222 +785,222 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>_xlfn.CONCAT("""",D4,"""",",")</f>
-        <v>"SERVICEINSTANCENUMBER",</v>
+        <v>"CUSTOMERACCOUNTNUMBER",</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>_xlfn.CONCAT("""",E4,"""",",")</f>
-        <v>"PACKAGENAME",</v>
+        <v>"BILLINGACCOUNTNUMBER",</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" ref="F6:BC6" si="0">_xlfn.CONCAT("""",F4,"""",",")</f>
+        <v>"SERVICEACCOUNTNUMBER",</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SERVICEINSTANCEIDENTIFIER",</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SERVICEINSTANCENUMBER",</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PACKAGENAME",</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SERVICESTATUS",</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"USERNAME",</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CREATEDDATE",</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ACTIVATIONDATE",</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"STATUSCHANGEDDATE",</v>
+      </c>
+      <c r="O6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"LASTACTION",</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"PACKAGEAMOUNT",</v>
+      </c>
+      <c r="Q6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPE_TYPE",</v>
+      </c>
+      <c r="R6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CPE_ID",</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CONTRACTSTARTDATE",</v>
+      </c>
+      <c r="T6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CONTRACTENDDATE",</v>
+      </c>
+      <c r="U6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"SERVICEREMARKS",</v>
+      </c>
+      <c r="V6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"EXPIRYDATE",</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"OVERRIDDEN",</v>
+      </c>
+      <c r="X6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"FSAN",</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ServiceID",</v>
+      </c>
+      <c r="Z6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ServiceRateID",</v>
+      </c>
+      <c r="AA6" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>"SERVICESTARTDATE",</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="AB6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"SERVICEENDDATE",</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="AC6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"clientcode",</v>
+      </c>
+      <c r="AD6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"contractcode",</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"serviceinstancestatus",</v>
+      </c>
+      <c r="AF6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CLIENT_ID",</v>
+      </c>
+      <c r="AG6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"CONTRACT_ID",</v>
+      </c>
+      <c r="AH6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"DEVICE_ID",</v>
+      </c>
+      <c r="AI6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"DEVICE_TYPE_ID",</v>
+      </c>
+      <c r="AJ6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"DEVICE_NAME",</v>
+      </c>
+      <c r="AK6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"GATEKEEPER_ID",</v>
+      </c>
+      <c r="AL6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"GATEKEEPER_NAME",</v>
+      </c>
+      <c r="AM6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"LASTSUBSTARTDATE",</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="AN6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"LASTSUBENDDATE",</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="AO6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>"LASTSUBPAYDATE",</v>
+      </c>
+      <c r="AP6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"LASTINVFROMDATE",</v>
       </c>
-      <c r="K6" s="3" t="str">
+      <c r="AQ6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"LASTINVTODATE",</v>
       </c>
-      <c r="L6" s="3" t="str">
+      <c r="AR6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"CURSUBSTARTDATE",</v>
       </c>
-      <c r="M6" s="3" t="str">
+      <c r="AS6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"CURSUBENDDATE",</v>
       </c>
-      <c r="N6" s="3" t="str">
+      <c r="AT6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"CURSUBPAYDATE",</v>
       </c>
-      <c r="O6" s="3" t="str">
+      <c r="AU6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"CURINVFROMDATE",</v>
       </c>
-      <c r="P6" s="3" t="str">
+      <c r="AV6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"CURINVTODATE",</v>
       </c>
-      <c r="Q6" s="3" t="str">
+      <c r="AW6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"SUBFROM",</v>
       </c>
-      <c r="R6" s="3" t="str">
+      <c r="AX6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"SUBTO",</v>
       </c>
-      <c r="S6" s="3" t="str">
+      <c r="AY6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"SUBPERIOD",</v>
       </c>
-      <c r="T6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"OVERRIDDEN",</v>
-      </c>
-      <c r="U6" s="3" t="str">
+      <c r="AZ6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"",</v>
       </c>
-      <c r="V6" s="3" t="str">
+      <c r="BA6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"",</v>
       </c>
-      <c r="W6" s="3" t="str">
+      <c r="BB6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"",</v>
       </c>
-      <c r="X6" s="3" t="str">
+      <c r="BC6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>"",</v>
       </c>
-      <c r="Y6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="Z6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AA6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AB6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AC6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AD6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AE6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AF6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AG6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AH6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AI6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AJ6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AK6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AL6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AM6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AN6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AO6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AP6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AQ6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AR6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AS6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AT6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AU6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AV6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AW6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AX6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AY6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="AZ6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="BA6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="BB6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-      <c r="BC6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>"",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -853,195 +1008,195 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>_xlfn.CONCAT("ifnull(",D4,",""""),")</f>
-        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
+        <v>ifnull(CUSTOMERACCOUNTNUMBER,""),</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ref="E8:BC8" si="1">_xlfn.CONCAT("ifnull(",E4,",""""),")</f>
+        <v>ifnull(BILLINGACCOUNTNUMBER,""),</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERVICEACCOUNTNUMBER,""),</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERVICEINSTANCEIDENTIFIER,""),</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERVICEINSTANCENUMBER,""),</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>ifnull(PACKAGENAME,""),</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERVICESTATUS,""),</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(USERNAME,""),</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CREATEDDATE,""),</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(ACTIVATIONDATE,""),</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(STATUSCHANGEDDATE,""),</v>
+      </c>
+      <c r="O8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(LASTACTION,""),</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(PACKAGEAMOUNT,""),</v>
+      </c>
+      <c r="Q8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CPE_TYPE,""),</v>
+      </c>
+      <c r="R8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CPE_ID,""),</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CONTRACTSTARTDATE,""),</v>
+      </c>
+      <c r="T8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CONTRACTENDDATE,""),</v>
+      </c>
+      <c r="U8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(SERVICEREMARKS,""),</v>
+      </c>
+      <c r="V8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(EXPIRYDATE,""),</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(OVERRIDDEN,""),</v>
+      </c>
+      <c r="X8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(FSAN,""),</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(ServiceID,""),</v>
+      </c>
+      <c r="Z8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(ServiceRateID,""),</v>
+      </c>
+      <c r="AA8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(SERVICESTARTDATE,""),</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="AB8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(SERVICEENDDATE,""),</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="AC8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(clientcode,""),</v>
+      </c>
+      <c r="AD8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(contractcode,""),</v>
+      </c>
+      <c r="AE8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(serviceinstancestatus,""),</v>
+      </c>
+      <c r="AF8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CLIENT_ID,""),</v>
+      </c>
+      <c r="AG8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(CONTRACT_ID,""),</v>
+      </c>
+      <c r="AH8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(DEVICE_ID,""),</v>
+      </c>
+      <c r="AI8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(DEVICE_TYPE_ID,""),</v>
+      </c>
+      <c r="AJ8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(DEVICE_NAME,""),</v>
+      </c>
+      <c r="AK8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(GATEKEEPER_ID,""),</v>
+      </c>
+      <c r="AL8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(GATEKEEPER_NAME,""),</v>
+      </c>
+      <c r="AM8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(LASTSUBSTARTDATE,""),</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="AN8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(LASTSUBENDDATE,""),</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="AO8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ifnull(LASTSUBPAYDATE,""),</v>
+      </c>
+      <c r="AP8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(LASTINVFROMDATE,""),</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="AQ8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(LASTINVTODATE,""),</v>
       </c>
-      <c r="L8" s="3" t="str">
+      <c r="AR8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(CURSUBSTARTDATE,""),</v>
       </c>
-      <c r="M8" s="3" t="str">
+      <c r="AS8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(CURSUBENDDATE,""),</v>
       </c>
-      <c r="N8" s="3" t="str">
+      <c r="AT8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(CURSUBPAYDATE,""),</v>
       </c>
-      <c r="O8" s="3" t="str">
+      <c r="AU8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(CURINVFROMDATE,""),</v>
       </c>
-      <c r="P8" s="3" t="str">
+      <c r="AV8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(CURINVTODATE,""),</v>
       </c>
-      <c r="Q8" s="3" t="str">
+      <c r="AW8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(SUBFROM,""),</v>
       </c>
-      <c r="R8" s="3" t="str">
+      <c r="AX8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(SUBTO,""),</v>
       </c>
-      <c r="S8" s="3" t="str">
+      <c r="AY8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ifnull(SUBPERIOD,""),</v>
-      </c>
-      <c r="T8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(OVERRIDDEN,""),</v>
-      </c>
-      <c r="U8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="V8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="W8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="X8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="Y8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="Z8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AA8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AB8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AC8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AD8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AE8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AF8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AG8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AH8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AI8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AJ8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AK8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AL8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AM8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AN8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AO8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AP8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AQ8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AR8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AS8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AT8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AU8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AV8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AW8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AX8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
-      </c>
-      <c r="AY8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnull(,""),</v>
       </c>
       <c r="AZ8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1062,198 +1217,260 @@
     </row>
     <row r="9" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
